--- a/Fichiers_Projet/Repartition_Taches_Projet_Pollution_Metro.xlsx
+++ b/Fichiers_Projet/Repartition_Taches_Projet_Pollution_Metro.xlsx
@@ -607,7 +607,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fichiers_Projet/Repartition_Taches_Projet_Pollution_Metro.xlsx
+++ b/Fichiers_Projet/Repartition_Taches_Projet_Pollution_Metro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4524537877c1efab/Bureau/Projet_GM/Pollution_Data_Analysis_Transport_Stations/Fichiers_Projet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\OneDrive\Bureau\Projet_GM\Pollution_Data_Analysis_Transport_Stations\Fichiers_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_E99E3FC897D9AECF8A160BB8530969DC6018B10E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C11F957-2D8C-4957-BFC4-BE656981E0C1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAD9061-0611-472F-BAA9-85821488E500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Capucine</t>
+  </si>
+  <si>
+    <t>fait</t>
   </si>
 </sst>
 </file>
@@ -318,9 +321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,9 +361,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,9 +396,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +448,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,24 +644,24 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +689,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -669,7 +706,7 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>65</v>
@@ -678,7 +715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -704,7 +741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -730,7 +767,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -756,7 +793,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -782,7 +819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -808,7 +845,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -834,7 +871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -857,7 +894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -883,7 +920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -909,7 +946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -935,7 +972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -961,7 +998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -987,7 +1024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1013,7 +1050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1039,7 +1076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1065,7 +1102,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
